--- a/gr/Input_Output/PixelValidation/pixel_testdata.xlsx
+++ b/gr/Input_Output/PixelValidation/pixel_testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation\Git\gr\gr\Input_Output\PixelValidation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012F2D32-FC1C-499D-8659-0B81C526B90E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8A0B85-5EA2-49D0-B428-C05682A2F296}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="120">
   <si>
     <t>Test Run Environment</t>
   </si>
@@ -278,9 +278,6 @@
     <t>AccessiBe,Bing,DoubleclickFloodlight,DoubleclickFloodlightConfirmation,Facebook,GoogleAdwordsConversionTracking,GoogleAdwordsRemarketing,GoogleAnalytics,LinkShare,Omniture,Pingdom</t>
   </si>
   <si>
-    <t>AccessiBe,Bing,Cake,DoubleclickFloodlight,DoubleclickFloodlightConfirmation,Facebook,GoogleAdwordsConversionTracking,GoogleAnalytics,HarmonyConversionTracking,IncrementalMedia,LinkShare,Omniture,Pinterest,PowerInbox,Rejoiner</t>
-  </si>
-  <si>
     <t>BodyFirm</t>
   </si>
   <si>
@@ -308,9 +305,6 @@
     <t>AccessiBe,Bing,DoubleclickFloodlightConfirmation,Facebook,GoogleAdwordsConversionTracking,GoogleAnalytics,Hotjar,Kenshoo,Mouseflow,Omniture,Pingdom,Rejoiner,Smarter HQ,StackAdapt</t>
   </si>
   <si>
-    <t>AccessiBe,Bing,Cake,DoubleclickFloodlight,DoubleclickFloodlightConfirmation,Facebook,GoogleAdwordsConversionTracking,GoogleAnalytics,HarmonyConversionTracking,Hotjar,IncrementalMedia,LinkShare,Mouseflow,Omniture,Outbrain,Pinterest,PowerInbox,PropelMedia,Rejoiner,w55c</t>
-  </si>
-  <si>
     <t>AccessiBe,Bing,Cake,DoubleclickFloodlightConfirmationnew,Facebook,GoogleAdwordsConversionTracking,GoogleAnalytics,Kenshoo,Mouseflow,Omniture,Rejoiner</t>
   </si>
   <si>
@@ -387,6 +381,15 @@
   </si>
   <si>
     <t>AccessiBe,Bing,Facebook,GoogleAdwordsConversionTracking,GoogleAnalytics,Iconmedia,Mouseflow,Omniture,PayPal,Pingdom,RadianceLabs,Sailthru,Smarter HQ,w55c</t>
+  </si>
+  <si>
+    <t>AccessiBe,Bing,Cake,CJ,DoubleclickFloodlight,DoubleclickFloodlightConfirmation,Facebook,GoogleAdwordsConversionTracking,GoogleAnalytics,HarmonyConversionTracking,IncrementalMedia,LinkShare,Omniture,Pinterest,PowerInbox,Rejoiner</t>
+  </si>
+  <si>
+    <t>AccessiBe,Bing,Cake,CJ,DoubleclickFloodlight,DoubleclickFloodlightConfirmation,Facebook,GoogleAdwordsConversionTracking,GoogleAnalytics,HarmonyConversionTracking,Hotjar,IncrementalMedia,LinkShare,Mouseflow,Omniture,Outbrain,Pinterest,PowerInbox,PropelMedia,Rejoiner,w55c</t>
+  </si>
+  <si>
+    <t>Rejoiner</t>
   </si>
 </sst>
 </file>
@@ -862,7 +865,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -900,299 +903,18 @@
         <v>56</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>25</v>
+      <c r="E2" s="10" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>85</v>
+      <c r="A3" s="7" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1216,8 +938,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AC25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1251,16 +973,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1268,7 +990,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>18</v>
@@ -1277,7 +999,7 @@
         <v>50</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:29" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1294,7 +1016,7 @@
         <v>50</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:29" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1311,7 +1033,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -1352,7 +1074,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1369,7 +1091,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1437,7 +1159,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1454,7 +1176,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1471,7 +1193,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1488,7 +1210,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1522,7 +1244,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1539,7 +1261,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1547,16 +1269,16 @@
         <v>2</v>
       </c>
       <c r="B18" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>89</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1564,7 +1286,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>18</v>
@@ -1573,7 +1295,7 @@
         <v>50</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1581,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>18</v>
@@ -1590,7 +1312,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1685,7 +1407,7 @@
   <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:E91"/>
+      <selection activeCell="A73" sqref="A73:E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1741,7 +1463,7 @@
         <v>56</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>50</v>
@@ -2838,7 +2560,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>18</v>
@@ -2856,7 +2578,7 @@
         <v>2</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>18</v>
@@ -2874,7 +2596,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>18</v>
@@ -2892,7 +2614,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>18</v>
@@ -2930,7 +2652,7 @@
         <v>56</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>50</v>
@@ -3233,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>18</v>
@@ -3253,7 +2975,7 @@
         <v>19</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>50</v>
@@ -3270,7 +2992,7 @@
         <v>5</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>50</v>
@@ -3400,61 +3122,61 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C105" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C106" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C107" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
+        <v>109</v>
+      </c>
+      <c r="C109" s="13" t="s">
         <v>111</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C110" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C111" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C113" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C114" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C115" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/gr/Input_Output/PixelValidation/pixel_testdata.xlsx
+++ b/gr/Input_Output/PixelValidation/pixel_testdata.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation\Git\gr\gr\Input_Output\PixelValidation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA8A0B85-5EA2-49D0-B428-C05682A2F296}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBBE08D-8AE6-4857-AEC5-A89432186197}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Run Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Test Data" sheetId="2" r:id="rId2"/>
-    <sheet name="FB Pixel Test data" sheetId="5" r:id="rId3"/>
+    <sheet name="FBPixels" sheetId="6" r:id="rId1"/>
+    <sheet name="AllPixels" sheetId="1" r:id="rId2"/>
+    <sheet name="Test Data" sheetId="2" r:id="rId3"/>
+    <sheet name="FB Pixel Test data" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="0" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="108">
   <si>
     <t>Test Run Environment</t>
   </si>
@@ -206,9 +208,6 @@
     <t>Bing,DoubleclickFloodlightConfirmationnew,Facebook,GoogleAdwordsConversionTracking,Omniture</t>
   </si>
   <si>
-    <t>Bing,Cake,DoubleclickFloodlightConfirmationnew,Facebook,GoogleAdwordsConversionTracking,GoogleAnalytics,Hotjar,Omniture,Rejoiner</t>
-  </si>
-  <si>
     <t>crepeerase</t>
   </si>
   <si>
@@ -287,9 +286,6 @@
     <t>End</t>
   </si>
   <si>
-    <t>AccessiBe,Bing,Cake,Criteo,DoubleclickFloodlightConfirmationnew,Facebook,GoogleAdwordsConversionTracking,GoogleAnalytics,HarmonyConversionTracking,Hotjar,Kenshoo,Mouseflow,Omniture,Pingdom,Rejoiner,Smarter HQ</t>
-  </si>
-  <si>
     <t>AccessiBe,Bing,Cake,DoubleclickFloodlight,DoubleclickFloodlightConfirmation,Facebook,GoogleAdwordsConversionTracking,GoogleAdwordsRemarketing,GoogleAnalytics,HarmonyConversionTracking,Kenshoo,LinkShare,Mouseflow,Omniture,Pingdom</t>
   </si>
   <si>
@@ -302,27 +298,18 @@
     <t>AccessiBe,Bing,Cake,DoubleclickFloodlightConfirmationnew,Facebook,GoogleAdwordsConversionTracking,GoogleAnalytics,Justuno,Kenshoo,Mouseflow,Omniture</t>
   </si>
   <si>
-    <t>AccessiBe,Bing,DoubleclickFloodlightConfirmation,Facebook,GoogleAdwordsConversionTracking,GoogleAnalytics,Hotjar,Kenshoo,Mouseflow,Omniture,Pingdom,Rejoiner,Smarter HQ,StackAdapt</t>
-  </si>
-  <si>
     <t>AccessiBe,Bing,Cake,DoubleclickFloodlightConfirmationnew,Facebook,GoogleAdwordsConversionTracking,GoogleAnalytics,Kenshoo,Mouseflow,Omniture,Rejoiner</t>
   </si>
   <si>
     <t>BodyFirm-SpotFade</t>
   </si>
   <si>
-    <t>AccessiBe,AmazonFire,Bing,Cake,Criteo,DoubleclickFloodlight,DoubleclickFloodlightConfirmation,Facebook,GoogleAdwordsConversionTracking,GoogleAdwordsRemarketing,GoogleAnalytics,HarmonyConversionTracking,Hotjar,Kenshoo,Mouseflow,IncrementalMedia,LinkShare,Omniture,Outbrain,Pingdom,Pinterest,PropelMedia,Rejoiner,Smarter HQ,StackAdapt,StarMobile,Taboola,tvpixel,w55c</t>
-  </si>
-  <si>
     <t>SpotFade</t>
   </si>
   <si>
     <t>Bing,Cake,Facebook,GoogleAdwordsConversionTracking,GoogleAnalytics,Mouseflow,Omniture,Rakuten</t>
   </si>
   <si>
-    <t>AccessiBe,Bing,Cake,Criteo,Facebook,GoogleAdwordsConversionTracking,GoogleAnalytics,Hotjar,Kenshoo,Mouseflow,Omniture,Rejoiner,Smarter HQ</t>
-  </si>
-  <si>
     <t>AllKind</t>
   </si>
   <si>
@@ -344,39 +331,6 @@
     <t>advanceddeluxe20offevergreensale</t>
   </si>
   <si>
-    <t>deluxe20off-60secondeye</t>
-  </si>
-  <si>
-    <t>wy</t>
-  </si>
-  <si>
-    <t>deluxe20off-holiday</t>
-  </si>
-  <si>
-    <t>deluxe20off-fcp</t>
-  </si>
-  <si>
-    <t>mb5-deluxe20offb15</t>
-  </si>
-  <si>
-    <t>mb</t>
-  </si>
-  <si>
-    <t>mb7deluxe20offb15</t>
-  </si>
-  <si>
-    <t>core</t>
-  </si>
-  <si>
-    <t>ce</t>
-  </si>
-  <si>
-    <t>advanced-holiday-special</t>
-  </si>
-  <si>
-    <t>classic-deluxe20off-holiday</t>
-  </si>
-  <si>
     <t>JLoBeauty</t>
   </si>
   <si>
@@ -386,10 +340,22 @@
     <t>AccessiBe,Bing,Cake,CJ,DoubleclickFloodlight,DoubleclickFloodlightConfirmation,Facebook,GoogleAdwordsConversionTracking,GoogleAnalytics,HarmonyConversionTracking,IncrementalMedia,LinkShare,Omniture,Pinterest,PowerInbox,Rejoiner</t>
   </si>
   <si>
-    <t>AccessiBe,Bing,Cake,CJ,DoubleclickFloodlight,DoubleclickFloodlightConfirmation,Facebook,GoogleAdwordsConversionTracking,GoogleAnalytics,HarmonyConversionTracking,Hotjar,IncrementalMedia,LinkShare,Mouseflow,Omniture,Outbrain,Pinterest,PowerInbox,PropelMedia,Rejoiner,w55c</t>
-  </si>
-  <si>
-    <t>Rejoiner</t>
+    <t>AccessiBe,AmazonFire,Bing,Cake,Criteo,DoubleclickFloodlight,DoubleclickFloodlightConfirmation,Facebook,GoogleAdwordsConversionTracking,GoogleAdwordsRemarketing,GoogleAnalytics,HarmonyConversionTracking,Kenshoo,Mouseflow,IncrementalMedia,LinkShare,Omniture,Outbrain,Pingdom,Pinterest,PropelMedia,Rejoiner,Smarter HQ,StackAdapt,StarMobile,Taboola,tvpixel,w55c</t>
+  </si>
+  <si>
+    <t>AccessiBe,Bing,DoubleclickFloodlightConfirmation,Facebook,GoogleAdwordsConversionTracking,GoogleAnalytics,Kenshoo,Mouseflow,Omniture,Pingdom,Rejoiner,Smarter HQ,StackAdapt</t>
+  </si>
+  <si>
+    <t>AccessiBe,Bing,Cake,Criteo,DoubleclickFloodlightConfirmationnew,Facebook,GoogleAdwordsConversionTracking,GoogleAnalytics,HarmonyConversionTracking,Kenshoo,Mouseflow,Omniture,Pingdom,Rejoiner,Smarter HQ</t>
+  </si>
+  <si>
+    <t>AccessiBe,Bing,Cake,CJ,DoubleclickFloodlight,DoubleclickFloodlightConfirmation,Facebook,GoogleAdwordsConversionTracking,GoogleAnalytics,HarmonyConversionTracking,IncrementalMedia,LinkShare,Mouseflow,Omniture,Outbrain,Pinterest,PowerInbox,PropelMedia,Rejoiner,w55c</t>
+  </si>
+  <si>
+    <t>AccessiBe,Bing,Cake,Criteo,Facebook,GoogleAdwordsConversionTracking,GoogleAnalytics,Kenshoo,Mouseflow,Omniture,Rejoiner,Smarter HQ</t>
+  </si>
+  <si>
+    <t>Bing,Cake,DoubleclickFloodlightConfirmationnew,Facebook,GoogleAdwordsConversionTracking,GoogleAnalytics,Omniture,Rejoiner</t>
   </si>
 </sst>
 </file>
@@ -863,9 +829,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCBB41D-A12A-4622-9C42-DCD0E274A75A}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -908,13 +873,362 @@
       <c r="D2" s="5" t="s">
         <v>50</v>
       </c>
+      <c r="E2" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="86.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="E2" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -933,13 +1247,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A5" sqref="A5:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,16 +1287,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>82</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:29" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -990,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>18</v>
@@ -999,7 +1313,7 @@
         <v>50</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:29" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1016,7 +1330,7 @@
         <v>50</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:29" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1033,7 +1347,7 @@
         <v>50</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F5"/>
       <c r="G5"/>
@@ -1074,7 +1388,7 @@
         <v>50</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1091,7 +1405,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1108,7 +1422,7 @@
         <v>50</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1125,7 +1439,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1142,7 +1456,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1159,7 +1473,7 @@
         <v>50</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1176,7 +1490,7 @@
         <v>50</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1193,7 +1507,7 @@
         <v>50</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1210,7 +1524,7 @@
         <v>50</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1227,7 +1541,7 @@
         <v>50</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1244,7 +1558,7 @@
         <v>50</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1261,7 +1575,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1269,7 +1583,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>18</v>
@@ -1278,7 +1592,7 @@
         <v>50</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1286,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>18</v>
@@ -1295,7 +1609,7 @@
         <v>50</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1303,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>18</v>
@@ -1312,7 +1626,7 @@
         <v>50</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1401,13 +1715,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:F115"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:E73"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104:E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,7 +1777,7 @@
         <v>56</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>50</v>
@@ -1481,7 +1795,7 @@
         <v>56</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>50</v>
@@ -1661,7 +1975,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>50</v>
@@ -1861,7 +2175,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>50</v>
@@ -1879,7 +2193,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>50</v>
@@ -1897,7 +2211,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>50</v>
@@ -1915,7 +2229,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>50</v>
@@ -1933,7 +2247,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>50</v>
@@ -2041,7 +2355,7 @@
         <v>9</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>50</v>
@@ -2059,7 +2373,7 @@
         <v>9</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>50</v>
@@ -2077,7 +2391,7 @@
         <v>9</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>50</v>
@@ -2095,7 +2409,7 @@
         <v>9</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>50</v>
@@ -2113,7 +2427,7 @@
         <v>9</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>50</v>
@@ -2131,7 +2445,7 @@
         <v>9</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>50</v>
@@ -2149,7 +2463,7 @@
         <v>9</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>50</v>
@@ -2275,7 +2589,7 @@
         <v>19</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>50</v>
@@ -2293,7 +2607,7 @@
         <v>19</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>50</v>
@@ -2383,7 +2697,7 @@
         <v>34</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>50</v>
@@ -2401,7 +2715,7 @@
         <v>34</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>50</v>
@@ -2473,7 +2787,7 @@
         <v>34</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D59" s="8" t="s">
         <v>50</v>
@@ -2491,7 +2805,7 @@
         <v>34</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D60" s="8" t="s">
         <v>50</v>
@@ -2560,7 +2874,7 @@
         <v>2</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>18</v>
@@ -2578,7 +2892,7 @@
         <v>2</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>18</v>
@@ -2596,7 +2910,7 @@
         <v>2</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>18</v>
@@ -2614,7 +2928,7 @@
         <v>2</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C67" s="8" t="s">
         <v>18</v>
@@ -2652,7 +2966,7 @@
         <v>56</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>50</v>
@@ -2669,7 +2983,7 @@
         <v>56</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>50</v>
@@ -2805,7 +3119,7 @@
         <v>13</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>50</v>
@@ -2907,7 +3221,7 @@
         <v>34</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>50</v>
@@ -2924,7 +3238,7 @@
         <v>34</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>50</v>
@@ -2955,7 +3269,7 @@
         <v>2</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C92" s="7" t="s">
         <v>18</v>
@@ -2975,7 +3289,7 @@
         <v>19</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>50</v>
@@ -2992,7 +3306,7 @@
         <v>5</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>50</v>
@@ -3077,7 +3391,7 @@
         <v>9</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>50</v>
@@ -3121,62 +3435,326 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>105</v>
-      </c>
-      <c r="C104" t="s">
-        <v>111</v>
+      <c r="A104" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C105" s="13" t="s">
-        <v>104</v>
+      <c r="A105" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E105" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C106" s="13" t="s">
-        <v>106</v>
+      <c r="A106" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C107" s="13" t="s">
-        <v>107</v>
+      <c r="A107" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>109</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>111</v>
+      <c r="A109" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C110" s="13" t="s">
-        <v>108</v>
+      <c r="A110" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C111" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
-        <v>112</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C114" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C115" s="13" t="s">
-        <v>114</v>
+      <c r="A111" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E114" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/gr/Input_Output/PixelValidation/pixel_testdata.xlsx
+++ b/gr/Input_Output/PixelValidation/pixel_testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation\Git\gr\gr\Input_Output\PixelValidation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBBE08D-8AE6-4857-AEC5-A89432186197}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF8489B-AE2F-4376-9E85-082F9231434D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="109">
   <si>
     <t>Test Run Environment</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>Bing,Cake,DoubleclickFloodlightConfirmationnew,Facebook,GoogleAdwordsConversionTracking,GoogleAnalytics,Omniture,Rejoiner</t>
+  </si>
+  <si>
+    <t>deluxe25offp-redes</t>
   </si>
 </sst>
 </file>
@@ -830,7 +833,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCBB41D-A12A-4622-9C42-DCD0E274A75A}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -865,10 +868,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>50</v>
@@ -882,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>18</v>
@@ -899,7 +902,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>18</v>
@@ -916,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>18</v>
@@ -933,7 +936,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>18</v>
@@ -950,7 +953,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>18</v>
@@ -967,10 +970,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>50</v>
@@ -984,10 +987,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>50</v>
@@ -1001,10 +1004,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>50</v>
@@ -1018,10 +1021,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>50</v>
@@ -1035,10 +1038,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>50</v>
@@ -1052,10 +1055,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>50</v>
@@ -1069,10 +1072,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>50</v>
@@ -1083,6 +1086,23 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1096,7 +1116,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1104,7 +1126,7 @@
     <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="32.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="86.7109375" customWidth="1"/>
+    <col min="5" max="5" width="120.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">

--- a/gr/Input_Output/PixelValidation/pixel_testdata.xlsx
+++ b/gr/Input_Output/PixelValidation/pixel_testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Automation\Git\gr\gr\Input_Output\PixelValidation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\happy\git\gr\gr\Input_Output\PixelValidation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF8489B-AE2F-4376-9E85-082F9231434D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B16404-29ED-466F-9C9E-A9FAFA451168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FBPixels" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="110">
   <si>
     <t>Test Run Environment</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t>deluxe25offp-redes</t>
+  </si>
+  <si>
+    <t>deluxe25offp-redes-spring</t>
   </si>
 </sst>
 </file>
@@ -833,20 +836,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCBB41D-A12A-4622-9C42-DCD0E274A75A}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="86.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="86.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -863,7 +868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -880,7 +885,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -897,7 +902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -914,7 +919,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -931,7 +936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -948,7 +953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
@@ -965,7 +970,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -982,7 +987,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
@@ -999,7 +1004,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
@@ -1016,7 +1021,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
@@ -1033,7 +1038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -1050,7 +1055,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -1067,7 +1072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -1084,7 +1089,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -1101,8 +1106,25 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1120,16 +1142,16 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="120.28515625" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="120.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +1168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -1163,7 +1185,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -1180,7 +1202,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1197,7 +1219,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1214,7 +1236,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -1231,7 +1253,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
@@ -1248,7 +1270,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>83</v>
       </c>
@@ -1278,16 +1300,16 @@
       <selection activeCell="A5" sqref="A5:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
     <col min="5" max="5" width="153" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1304,7 +1326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -1321,7 +1343,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -1338,7 +1360,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1355,7 +1377,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1396,7 +1418,7 @@
       <c r="AB5"/>
       <c r="AC5"/>
     </row>
-    <row r="6" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -1413,7 +1435,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
@@ -1430,7 +1452,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
@@ -1447,7 +1469,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
@@ -1464,7 +1486,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>2</v>
       </c>
@@ -1481,7 +1503,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>2</v>
       </c>
@@ -1498,7 +1520,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
@@ -1515,7 +1537,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>2</v>
       </c>
@@ -1532,7 +1554,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>2</v>
       </c>
@@ -1549,7 +1571,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>2</v>
       </c>
@@ -1566,7 +1588,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
         <v>2</v>
       </c>
@@ -1583,7 +1605,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>2</v>
       </c>
@@ -1600,7 +1622,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>2</v>
       </c>
@@ -1617,7 +1639,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="14" t="s">
         <v>2</v>
       </c>
@@ -1634,7 +1656,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="14" t="s">
         <v>2</v>
       </c>
@@ -1651,7 +1673,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -1668,7 +1690,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -1681,7 +1703,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -1696,7 +1718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -1713,7 +1735,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -1746,17 +1768,17 @@
       <selection activeCell="A104" sqref="A104:E122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="41.5703125" customWidth="1"/>
-    <col min="6" max="6" width="43.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" customWidth="1"/>
+    <col min="5" max="5" width="41.5546875" customWidth="1"/>
+    <col min="6" max="6" width="43.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1773,7 +1795,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1791,7 +1813,7 @@
       </c>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1809,7 +1831,7 @@
       </c>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1827,7 +1849,7 @@
       </c>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1845,7 +1867,7 @@
       </c>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -1863,7 +1885,7 @@
       </c>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
@@ -1881,7 +1903,7 @@
       </c>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1899,7 +1921,7 @@
       </c>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
@@ -1917,7 +1939,7 @@
       </c>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
@@ -1935,7 +1957,7 @@
       </c>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
@@ -1953,7 +1975,7 @@
       </c>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -1971,7 +1993,7 @@
       </c>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -1989,7 +2011,7 @@
       </c>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -2007,7 +2029,7 @@
       </c>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -2025,7 +2047,7 @@
       </c>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>2</v>
       </c>
@@ -2043,7 +2065,7 @@
       </c>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>2</v>
       </c>
@@ -2063,7 +2085,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>2</v>
       </c>
@@ -2081,7 +2103,7 @@
       </c>
       <c r="F18" s="17"/>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>2</v>
       </c>
@@ -2099,7 +2121,7 @@
       </c>
       <c r="F19" s="17"/>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
@@ -2117,7 +2139,7 @@
       </c>
       <c r="F20" s="17"/>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>2</v>
       </c>
@@ -2135,7 +2157,7 @@
       </c>
       <c r="F21" s="17"/>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -2153,7 +2175,7 @@
       </c>
       <c r="F22" s="17"/>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>2</v>
       </c>
@@ -2171,7 +2193,7 @@
       </c>
       <c r="F23" s="17"/>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>2</v>
       </c>
@@ -2189,7 +2211,7 @@
       </c>
       <c r="F24" s="17"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>2</v>
       </c>
@@ -2207,7 +2229,7 @@
       </c>
       <c r="F25" s="17"/>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>2</v>
       </c>
@@ -2225,7 +2247,7 @@
       </c>
       <c r="F26" s="17"/>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>2</v>
       </c>
@@ -2243,7 +2265,7 @@
       </c>
       <c r="F27" s="17"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>2</v>
       </c>
@@ -2261,7 +2283,7 @@
       </c>
       <c r="F28" s="17"/>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>2</v>
       </c>
@@ -2279,7 +2301,7 @@
       </c>
       <c r="F29" s="17"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>2</v>
       </c>
@@ -2297,7 +2319,7 @@
       </c>
       <c r="F30" s="17"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -2315,7 +2337,7 @@
       </c>
       <c r="F31" s="17"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>2</v>
       </c>
@@ -2333,7 +2355,7 @@
       </c>
       <c r="F32" s="17"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>2</v>
       </c>
@@ -2351,7 +2373,7 @@
       </c>
       <c r="F33" s="17"/>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>2</v>
       </c>
@@ -2369,7 +2391,7 @@
       </c>
       <c r="F34" s="17"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>2</v>
       </c>
@@ -2387,7 +2409,7 @@
       </c>
       <c r="F35" s="17"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>2</v>
       </c>
@@ -2405,7 +2427,7 @@
       </c>
       <c r="F36" s="17"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>2</v>
       </c>
@@ -2423,7 +2445,7 @@
       </c>
       <c r="F37" s="17"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>2</v>
       </c>
@@ -2441,7 +2463,7 @@
       </c>
       <c r="F38" s="17"/>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>2</v>
       </c>
@@ -2459,7 +2481,7 @@
       </c>
       <c r="F39" s="17"/>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -2477,7 +2499,7 @@
       </c>
       <c r="F40" s="17"/>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>2</v>
       </c>
@@ -2495,7 +2517,7 @@
       </c>
       <c r="F41" s="17"/>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>2</v>
       </c>
@@ -2513,7 +2535,7 @@
       </c>
       <c r="F42" s="17"/>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>2</v>
       </c>
@@ -2531,7 +2553,7 @@
       </c>
       <c r="F43" s="17"/>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>2</v>
       </c>
@@ -2549,7 +2571,7 @@
       </c>
       <c r="F44" s="17"/>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>2</v>
       </c>
@@ -2567,7 +2589,7 @@
       </c>
       <c r="F45" s="17"/>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>2</v>
       </c>
@@ -2585,7 +2607,7 @@
       </c>
       <c r="F46" s="17"/>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>2</v>
       </c>
@@ -2603,7 +2625,7 @@
       </c>
       <c r="F47" s="17"/>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>2</v>
       </c>
@@ -2621,7 +2643,7 @@
       </c>
       <c r="F48" s="17"/>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -2639,7 +2661,7 @@
       </c>
       <c r="F49" s="17"/>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>2</v>
       </c>
@@ -2657,7 +2679,7 @@
       </c>
       <c r="F50" s="17"/>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>2</v>
       </c>
@@ -2675,7 +2697,7 @@
       </c>
       <c r="F51" s="17"/>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>2</v>
       </c>
@@ -2693,7 +2715,7 @@
       </c>
       <c r="F52" s="17"/>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>2</v>
       </c>
@@ -2711,7 +2733,7 @@
       </c>
       <c r="F53" s="17"/>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
         <v>2</v>
       </c>
@@ -2729,7 +2751,7 @@
       </c>
       <c r="F54" s="17"/>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>2</v>
       </c>
@@ -2747,7 +2769,7 @@
       </c>
       <c r="F55" s="17"/>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>2</v>
       </c>
@@ -2765,7 +2787,7 @@
       </c>
       <c r="F56" s="17"/>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>2</v>
       </c>
@@ -2783,7 +2805,7 @@
       </c>
       <c r="F57" s="17"/>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>2</v>
       </c>
@@ -2801,7 +2823,7 @@
       </c>
       <c r="F58" s="17"/>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
         <v>2</v>
       </c>
@@ -2819,7 +2841,7 @@
       </c>
       <c r="F59" s="17"/>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
         <v>2</v>
       </c>
@@ -2837,7 +2859,7 @@
       </c>
       <c r="F60" s="17"/>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>2</v>
       </c>
@@ -2855,7 +2877,7 @@
       </c>
       <c r="F61" s="17"/>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>2</v>
       </c>
@@ -2873,7 +2895,7 @@
       </c>
       <c r="F62" s="17"/>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>2</v>
       </c>
@@ -2891,7 +2913,7 @@
       </c>
       <c r="F63" s="17"/>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>2</v>
       </c>
@@ -2909,7 +2931,7 @@
       </c>
       <c r="F64" s="17"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>2</v>
       </c>
@@ -2927,7 +2949,7 @@
       </c>
       <c r="F65" s="17"/>
     </row>
-    <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>2</v>
       </c>
@@ -2945,7 +2967,7 @@
       </c>
       <c r="F66" s="17"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>2</v>
       </c>
@@ -2963,7 +2985,7 @@
       </c>
       <c r="F67" s="17"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
         <v>2</v>
       </c>
@@ -2980,7 +3002,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="5" t="s">
         <v>2</v>
       </c>
@@ -2997,7 +3019,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="5" t="s">
         <v>2</v>
       </c>
@@ -3014,7 +3036,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
         <v>2</v>
       </c>
@@ -3031,7 +3053,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="5" t="s">
         <v>2</v>
       </c>
@@ -3048,7 +3070,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="5" t="s">
         <v>2</v>
       </c>
@@ -3065,7 +3087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="5" t="s">
         <v>2</v>
       </c>
@@ -3082,7 +3104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="5" t="s">
         <v>2</v>
       </c>
@@ -3099,7 +3121,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>2</v>
       </c>
@@ -3116,7 +3138,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>2</v>
       </c>
@@ -3133,7 +3155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>2</v>
       </c>
@@ -3150,7 +3172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>2</v>
       </c>
@@ -3167,7 +3189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -3184,7 +3206,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
         <v>2</v>
       </c>
@@ -3201,7 +3223,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
         <v>2</v>
       </c>
@@ -3218,7 +3240,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>2</v>
       </c>
@@ -3235,7 +3257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
         <v>2</v>
       </c>
@@ -3252,7 +3274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
         <v>2</v>
       </c>
@@ -3269,7 +3291,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>2</v>
       </c>
@@ -3286,7 +3308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>2</v>
       </c>
@@ -3303,7 +3325,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
         <v>2</v>
       </c>
@@ -3320,7 +3342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
         <v>2</v>
       </c>
@@ -3337,7 +3359,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>2</v>
       </c>
@@ -3354,7 +3376,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
         <v>2</v>
       </c>
@@ -3371,7 +3393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
         <v>2</v>
       </c>
@@ -3388,7 +3410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
         <v>2</v>
       </c>
@@ -3405,7 +3427,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
         <v>2</v>
       </c>
@@ -3422,7 +3444,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
         <v>2</v>
       </c>
@@ -3439,7 +3461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
         <v>2</v>
       </c>
@@ -3456,7 +3478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>2</v>
       </c>
@@ -3473,7 +3495,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>2</v>
       </c>
@@ -3490,7 +3512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>2</v>
       </c>
@@ -3507,7 +3529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>2</v>
       </c>
@@ -3524,7 +3546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>2</v>
       </c>
@@ -3541,7 +3563,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="5" t="s">
         <v>2</v>
       </c>
@@ -3558,7 +3580,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>2</v>
       </c>
@@ -3575,7 +3597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>2</v>
       </c>
@@ -3592,7 +3614,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>2</v>
       </c>
@@ -3609,7 +3631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>2</v>
       </c>
@@ -3626,7 +3648,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>2</v>
       </c>
@@ -3643,7 +3665,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>2</v>
       </c>
@@ -3660,7 +3682,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>2</v>
       </c>
@@ -3677,7 +3699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="5" t="s">
         <v>2</v>
       </c>
@@ -3694,7 +3716,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="5" t="s">
         <v>2</v>
       </c>
@@ -3711,7 +3733,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>2</v>
       </c>
@@ -3728,7 +3750,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="5" t="s">
         <v>2</v>
       </c>
@@ -3745,7 +3767,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="5" t="s">
         <v>2</v>
       </c>
@@ -3762,7 +3784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>2</v>
       </c>

--- a/gr/Input_Output/PixelValidation/pixel_testdata.xlsx
+++ b/gr/Input_Output/PixelValidation/pixel_testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\happy\git\gr\gr\Input_Output\PixelValidation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B16404-29ED-466F-9C9E-A9FAFA451168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08ADFE0-96B0-45D3-863D-C8E05AC4FB40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FBPixels" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="111">
   <si>
     <t>Test Run Environment</t>
   </si>
@@ -361,7 +361,10 @@
     <t>deluxe25offp-redes</t>
   </si>
   <si>
-    <t>deluxe25offp-redes-spring</t>
+    <t>deluxe25offp-redes-summera</t>
+  </si>
+  <si>
+    <t>deluxe25offp-redes-summerb</t>
   </si>
 </sst>
 </file>
@@ -836,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCBB41D-A12A-4622-9C42-DCD0E274A75A}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1123,8 +1126,25 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1138,8 +1158,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/gr/Input_Output/PixelValidation/pixel_testdata.xlsx
+++ b/gr/Input_Output/PixelValidation/pixel_testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\happy\git\gr\gr\Input_Output\PixelValidation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Code\gr-master\gr\Input_Output\PixelValidation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08ADFE0-96B0-45D3-863D-C8E05AC4FB40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9204DC-0422-45CB-B25F-3925F88BAA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FBPixels" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="112">
   <si>
     <t>Test Run Environment</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t>deluxe25offp-redes-summerb</t>
+  </si>
+  <si>
+    <t>deluxe25offp-redes-July4</t>
   </si>
 </sst>
 </file>
@@ -839,22 +842,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCBB41D-A12A-4622-9C42-DCD0E274A75A}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="32.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="86.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.54296875" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="5" max="5" width="86.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -871,7 +874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -888,7 +891,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -905,7 +908,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -922,7 +925,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -939,7 +942,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -956,7 +959,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
@@ -973,7 +976,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -990,7 +993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
@@ -998,7 +1001,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>50</v>
@@ -1007,7 +1010,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
@@ -1024,7 +1027,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
@@ -1041,15 +1044,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>50</v>
@@ -1058,15 +1061,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>50</v>
@@ -1075,7 +1078,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>50</v>
@@ -1092,15 +1095,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>50</v>
@@ -1109,42 +1112,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1158,20 +1127,20 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="32.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="120.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.54296875" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="5" max="5" width="120.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1188,7 +1157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -1205,7 +1174,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -1222,7 +1191,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1239,7 +1208,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1256,7 +1225,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -1273,7 +1242,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
@@ -1290,7 +1259,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>83</v>
       </c>
@@ -1320,16 +1289,16 @@
       <selection activeCell="A5" sqref="A5:E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.08984375" customWidth="1"/>
+    <col min="2" max="2" width="25.08984375" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" customWidth="1"/>
     <col min="5" max="5" width="153" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1346,7 +1315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
@@ -1363,7 +1332,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -1380,7 +1349,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" s="1" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1397,7 +1366,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
@@ -1438,7 +1407,7 @@
       <c r="AB5"/>
       <c r="AC5"/>
     </row>
-    <row r="6" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -1455,7 +1424,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>2</v>
       </c>
@@ -1472,7 +1441,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
@@ -1489,7 +1458,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>2</v>
       </c>
@@ -1506,7 +1475,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>2</v>
       </c>
@@ -1523,7 +1492,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>2</v>
       </c>
@@ -1540,7 +1509,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>2</v>
       </c>
@@ -1557,7 +1526,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>2</v>
       </c>
@@ -1574,7 +1543,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>2</v>
       </c>
@@ -1591,7 +1560,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>2</v>
       </c>
@@ -1608,7 +1577,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>2</v>
       </c>
@@ -1625,7 +1594,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>2</v>
       </c>
@@ -1642,7 +1611,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>2</v>
       </c>
@@ -1659,7 +1628,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>2</v>
       </c>
@@ -1676,7 +1645,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>2</v>
       </c>
@@ -1693,7 +1662,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -1710,7 +1679,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -1723,7 +1692,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -1738,7 +1707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>2</v>
       </c>
@@ -1755,7 +1724,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>2</v>
       </c>
@@ -1788,17 +1757,17 @@
       <selection activeCell="A104" sqref="A104:E122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.109375" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" customWidth="1"/>
-    <col min="5" max="5" width="41.5546875" customWidth="1"/>
-    <col min="6" max="6" width="43.109375" customWidth="1"/>
+    <col min="1" max="1" width="22.36328125" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+    <col min="3" max="3" width="35.90625" customWidth="1"/>
+    <col min="4" max="4" width="27.90625" customWidth="1"/>
+    <col min="5" max="5" width="41.54296875" customWidth="1"/>
+    <col min="6" max="6" width="43.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1815,7 +1784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1833,7 +1802,7 @@
       </c>
       <c r="F2" s="16"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1851,7 +1820,7 @@
       </c>
       <c r="F3" s="16"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1869,7 +1838,7 @@
       </c>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1887,7 +1856,7 @@
       </c>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -1905,7 +1874,7 @@
       </c>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
@@ -1923,7 +1892,7 @@
       </c>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1941,7 +1910,7 @@
       </c>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>2</v>
       </c>
@@ -1959,7 +1928,7 @@
       </c>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>2</v>
       </c>
@@ -1977,7 +1946,7 @@
       </c>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
@@ -1995,7 +1964,7 @@
       </c>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2013,7 +1982,7 @@
       </c>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -2031,7 +2000,7 @@
       </c>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -2049,7 +2018,7 @@
       </c>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>2</v>
       </c>
@@ -2067,7 +2036,7 @@
       </c>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>2</v>
       </c>
@@ -2085,7 +2054,7 @@
       </c>
       <c r="F16" s="16"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>2</v>
       </c>
@@ -2105,7 +2074,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>2</v>
       </c>
@@ -2123,7 +2092,7 @@
       </c>
       <c r="F18" s="17"/>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>2</v>
       </c>
@@ -2141,7 +2110,7 @@
       </c>
       <c r="F19" s="17"/>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>2</v>
       </c>
@@ -2159,7 +2128,7 @@
       </c>
       <c r="F20" s="17"/>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
         <v>2</v>
       </c>
@@ -2177,7 +2146,7 @@
       </c>
       <c r="F21" s="17"/>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>2</v>
       </c>
@@ -2195,7 +2164,7 @@
       </c>
       <c r="F22" s="17"/>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>2</v>
       </c>
@@ -2213,7 +2182,7 @@
       </c>
       <c r="F23" s="17"/>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>2</v>
       </c>
@@ -2231,7 +2200,7 @@
       </c>
       <c r="F24" s="17"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>2</v>
       </c>
@@ -2249,7 +2218,7 @@
       </c>
       <c r="F25" s="17"/>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>2</v>
       </c>
@@ -2267,7 +2236,7 @@
       </c>
       <c r="F26" s="17"/>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>2</v>
       </c>
@@ -2285,7 +2254,7 @@
       </c>
       <c r="F27" s="17"/>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>2</v>
       </c>
@@ -2303,7 +2272,7 @@
       </c>
       <c r="F28" s="17"/>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>2</v>
       </c>
@@ -2321,7 +2290,7 @@
       </c>
       <c r="F29" s="17"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>2</v>
       </c>
@@ -2339,7 +2308,7 @@
       </c>
       <c r="F30" s="17"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
@@ -2357,7 +2326,7 @@
       </c>
       <c r="F31" s="17"/>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
         <v>2</v>
       </c>
@@ -2375,7 +2344,7 @@
       </c>
       <c r="F32" s="17"/>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
         <v>2</v>
       </c>
@@ -2393,7 +2362,7 @@
       </c>
       <c r="F33" s="17"/>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
         <v>2</v>
       </c>
@@ -2411,7 +2380,7 @@
       </c>
       <c r="F34" s="17"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
         <v>2</v>
       </c>
@@ -2429,7 +2398,7 @@
       </c>
       <c r="F35" s="17"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
         <v>2</v>
       </c>
@@ -2447,7 +2416,7 @@
       </c>
       <c r="F36" s="17"/>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
         <v>2</v>
       </c>
@@ -2465,7 +2434,7 @@
       </c>
       <c r="F37" s="17"/>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
         <v>2</v>
       </c>
@@ -2483,7 +2452,7 @@
       </c>
       <c r="F38" s="17"/>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
         <v>2</v>
       </c>
@@ -2501,7 +2470,7 @@
       </c>
       <c r="F39" s="17"/>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
         <v>2</v>
       </c>
@@ -2519,7 +2488,7 @@
       </c>
       <c r="F40" s="17"/>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
         <v>2</v>
       </c>
@@ -2537,7 +2506,7 @@
       </c>
       <c r="F41" s="17"/>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
         <v>2</v>
       </c>
@@ -2555,7 +2524,7 @@
       </c>
       <c r="F42" s="17"/>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
         <v>2</v>
       </c>
@@ -2573,7 +2542,7 @@
       </c>
       <c r="F43" s="17"/>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
         <v>2</v>
       </c>
@@ -2591,7 +2560,7 @@
       </c>
       <c r="F44" s="17"/>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
         <v>2</v>
       </c>
@@ -2609,7 +2578,7 @@
       </c>
       <c r="F45" s="17"/>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
         <v>2</v>
       </c>
@@ -2627,7 +2596,7 @@
       </c>
       <c r="F46" s="17"/>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
         <v>2</v>
       </c>
@@ -2645,7 +2614,7 @@
       </c>
       <c r="F47" s="17"/>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
         <v>2</v>
       </c>
@@ -2663,7 +2632,7 @@
       </c>
       <c r="F48" s="17"/>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
         <v>2</v>
       </c>
@@ -2681,7 +2650,7 @@
       </c>
       <c r="F49" s="17"/>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
         <v>2</v>
       </c>
@@ -2699,7 +2668,7 @@
       </c>
       <c r="F50" s="17"/>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
         <v>2</v>
       </c>
@@ -2717,7 +2686,7 @@
       </c>
       <c r="F51" s="17"/>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
         <v>2</v>
       </c>
@@ -2735,7 +2704,7 @@
       </c>
       <c r="F52" s="17"/>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
         <v>2</v>
       </c>
@@ -2753,7 +2722,7 @@
       </c>
       <c r="F53" s="17"/>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
         <v>2</v>
       </c>
@@ -2771,7 +2740,7 @@
       </c>
       <c r="F54" s="17"/>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
         <v>2</v>
       </c>
@@ -2789,7 +2758,7 @@
       </c>
       <c r="F55" s="17"/>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
         <v>2</v>
       </c>
@@ -2807,7 +2776,7 @@
       </c>
       <c r="F56" s="17"/>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
         <v>2</v>
       </c>
@@ -2825,7 +2794,7 @@
       </c>
       <c r="F57" s="17"/>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
         <v>2</v>
       </c>
@@ -2843,7 +2812,7 @@
       </c>
       <c r="F58" s="17"/>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
         <v>2</v>
       </c>
@@ -2861,7 +2830,7 @@
       </c>
       <c r="F59" s="17"/>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>2</v>
       </c>
@@ -2879,7 +2848,7 @@
       </c>
       <c r="F60" s="17"/>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>2</v>
       </c>
@@ -2897,7 +2866,7 @@
       </c>
       <c r="F61" s="17"/>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>2</v>
       </c>
@@ -2915,7 +2884,7 @@
       </c>
       <c r="F62" s="17"/>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>2</v>
       </c>
@@ -2933,7 +2902,7 @@
       </c>
       <c r="F63" s="17"/>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>2</v>
       </c>
@@ -2951,7 +2920,7 @@
       </c>
       <c r="F64" s="17"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
         <v>2</v>
       </c>
@@ -2969,7 +2938,7 @@
       </c>
       <c r="F65" s="17"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
         <v>2</v>
       </c>
@@ -2987,7 +2956,7 @@
       </c>
       <c r="F66" s="17"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>2</v>
       </c>
@@ -3005,7 +2974,7 @@
       </c>
       <c r="F67" s="17"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>2</v>
       </c>
@@ -3022,7 +2991,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>2</v>
       </c>
@@ -3039,7 +3008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>2</v>
       </c>
@@ -3056,7 +3025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>2</v>
       </c>
@@ -3073,7 +3042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>2</v>
       </c>
@@ -3090,7 +3059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>2</v>
       </c>
@@ -3107,7 +3076,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>2</v>
       </c>
@@ -3124,7 +3093,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>2</v>
       </c>
@@ -3141,7 +3110,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>2</v>
       </c>
@@ -3158,7 +3127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>2</v>
       </c>
@@ -3175,7 +3144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>2</v>
       </c>
@@ -3192,7 +3161,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>2</v>
       </c>
@@ -3209,7 +3178,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>2</v>
       </c>
@@ -3226,7 +3195,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
         <v>2</v>
       </c>
@@ -3243,7 +3212,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>2</v>
       </c>
@@ -3260,7 +3229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
         <v>2</v>
       </c>
@@ -3277,7 +3246,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
         <v>2</v>
       </c>
@@ -3294,7 +3263,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>2</v>
       </c>
@@ -3311,7 +3280,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="8" t="s">
         <v>2</v>
       </c>
@@ -3328,7 +3297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
         <v>2</v>
       </c>
@@ -3345,7 +3314,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>2</v>
       </c>
@@ -3362,7 +3331,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>2</v>
       </c>
@@ -3379,7 +3348,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
         <v>2</v>
       </c>
@@ -3396,7 +3365,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
         <v>2</v>
       </c>
@@ -3413,7 +3382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
         <v>2</v>
       </c>
@@ -3430,7 +3399,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
         <v>2</v>
       </c>
@@ -3447,7 +3416,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
         <v>2</v>
       </c>
@@ -3464,7 +3433,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
         <v>2</v>
       </c>
@@ -3481,7 +3450,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
         <v>2</v>
       </c>
@@ -3498,7 +3467,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="5" t="s">
         <v>2</v>
       </c>
@@ -3515,7 +3484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="5" t="s">
         <v>2</v>
       </c>
@@ -3532,7 +3501,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="5" t="s">
         <v>2</v>
       </c>
@@ -3549,7 +3518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="5" t="s">
         <v>2</v>
       </c>
@@ -3566,7 +3535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="5" t="s">
         <v>2</v>
       </c>
@@ -3583,7 +3552,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="5" t="s">
         <v>2</v>
       </c>
@@ -3600,7 +3569,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>2</v>
       </c>
@@ -3617,7 +3586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>2</v>
       </c>
@@ -3634,7 +3603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>2</v>
       </c>
@@ -3651,7 +3620,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="5" t="s">
         <v>2</v>
       </c>
@@ -3668,7 +3637,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="5" t="s">
         <v>2</v>
       </c>
@@ -3685,7 +3654,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>2</v>
       </c>
@@ -3702,7 +3671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>2</v>
       </c>
@@ -3719,7 +3688,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="5" t="s">
         <v>2</v>
       </c>
@@ -3736,7 +3705,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="5" t="s">
         <v>2</v>
       </c>
@@ -3753,7 +3722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>2</v>
       </c>
@@ -3770,7 +3739,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="5" t="s">
         <v>2</v>
       </c>
@@ -3787,7 +3756,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="5" t="s">
         <v>2</v>
       </c>
@@ -3804,7 +3773,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="8" t="s">
         <v>2</v>
       </c>

--- a/gr/Input_Output/PixelValidation/pixel_testdata.xlsx
+++ b/gr/Input_Output/PixelValidation/pixel_testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Code\gr-master\gr\Input_Output\PixelValidation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9204DC-0422-45CB-B25F-3925F88BAA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7475DD6E-2715-4936-855E-A7D885771649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="113">
   <si>
     <t>Test Run Environment</t>
   </si>
@@ -358,16 +358,19 @@
     <t>Bing,Cake,DoubleclickFloodlightConfirmationnew,Facebook,GoogleAdwordsConversionTracking,GoogleAnalytics,Omniture,Rejoiner</t>
   </si>
   <si>
+    <t>cpcb2017</t>
+  </si>
+  <si>
     <t>deluxe25offp-redes</t>
   </si>
   <si>
+    <t>deluxe25offp-redes-July4</t>
+  </si>
+  <si>
     <t>deluxe25offp-redes-summera</t>
   </si>
   <si>
     <t>deluxe25offp-redes-summerb</t>
-  </si>
-  <si>
-    <t>deluxe25offp-redes-July4</t>
   </si>
 </sst>
 </file>
@@ -842,7 +845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCBB41D-A12A-4622-9C42-DCD0E274A75A}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -882,7 +885,7 @@
         <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>50</v>
@@ -909,211 +912,245 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>111</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1753,8 +1790,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104:E122"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117:C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/gr/Input_Output/PixelValidation/pixel_testdata.xlsx
+++ b/gr/Input_Output/PixelValidation/pixel_testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Code\gr-master\gr\Input_Output\PixelValidation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7475DD6E-2715-4936-855E-A7D885771649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F533AD-35FA-4EAA-A494-5CE3ABFDC7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -848,7 +848,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/gr/Input_Output/PixelValidation/pixel_testdata.xlsx
+++ b/gr/Input_Output/PixelValidation/pixel_testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Code\gr-master\gr\Input_Output\PixelValidation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F533AD-35FA-4EAA-A494-5CE3ABFDC7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32EF555-596F-4820-B1A3-2EC373BDFDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="113">
   <si>
     <t>Test Run Environment</t>
   </si>
@@ -358,19 +358,19 @@
     <t>Bing,Cake,DoubleclickFloodlightConfirmationnew,Facebook,GoogleAdwordsConversionTracking,GoogleAnalytics,Omniture,Rejoiner</t>
   </si>
   <si>
+    <t>stg</t>
+  </si>
+  <si>
+    <t>deluxe25offp-laborday</t>
+  </si>
+  <si>
+    <t>deluxe25offp-redes</t>
+  </si>
+  <si>
+    <t>deluxe25offp-redes-summerb</t>
+  </si>
+  <si>
     <t>cpcb2017</t>
-  </si>
-  <si>
-    <t>deluxe25offp-redes</t>
-  </si>
-  <si>
-    <t>deluxe25offp-redes-July4</t>
-  </si>
-  <si>
-    <t>deluxe25offp-redes-summera</t>
-  </si>
-  <si>
-    <t>deluxe25offp-redes-summerb</t>
   </si>
 </sst>
 </file>
@@ -848,7 +848,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -882,10 +882,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>50</v>
@@ -902,7 +902,7 @@
         <v>56</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>50</v>
@@ -912,189 +912,189 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="A14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="s">
         <v>111</v>
       </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1105,13 +1105,13 @@
       <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1120,15 +1120,15 @@
         <v>2</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1137,20 +1137,20 @@
         <v>2</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1162,10 +1162,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1196,10 +1196,10 @@
     </row>
     <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>18</v>
@@ -1208,96 +1208,11 @@
         <v>50</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1320,10 +1235,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AC25"/>
+  <dimension ref="A1:AC65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E12"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1776,6 +1691,108 @@
         <v>35</v>
       </c>
     </row>
+    <row r="60" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A60" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A61" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A62" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A63" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A64" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A65" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1790,8 +1807,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117:C117"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/gr/Input_Output/PixelValidation/pixel_testdata.xlsx
+++ b/gr/Input_Output/PixelValidation/pixel_testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Code\gr-master\gr\Input_Output\PixelValidation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32EF555-596F-4820-B1A3-2EC373BDFDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF4095D-13CA-4B70-8C33-D8B1DC445077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FBPixels" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="111">
   <si>
     <t>Test Run Environment</t>
   </si>
@@ -358,19 +358,13 @@
     <t>Bing,Cake,DoubleclickFloodlightConfirmationnew,Facebook,GoogleAdwordsConversionTracking,GoogleAnalytics,Omniture,Rejoiner</t>
   </si>
   <si>
-    <t>stg</t>
+    <t>cpwbunusedbdbj</t>
   </si>
   <si>
     <t>deluxe25offp-laborday</t>
   </si>
   <si>
     <t>deluxe25offp-redes</t>
-  </si>
-  <si>
-    <t>deluxe25offp-redes-summerb</t>
-  </si>
-  <si>
-    <t>cpcb2017</t>
   </si>
 </sst>
 </file>
@@ -845,10 +839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCBB41D-A12A-4622-9C42-DCD0E274A75A}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1021,7 +1015,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>50</v>
@@ -1037,7 +1031,7 @@
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="5" t="s">
         <v>109</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -1055,7 +1049,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>50</v>
@@ -1069,10 +1063,10 @@
         <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>110</v>
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>50</v>
@@ -1086,10 +1080,10 @@
         <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>111</v>
+        <v>11</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>50</v>
@@ -1099,58 +1093,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="A15" s="5" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1162,10 +1105,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1196,23 +1139,108 @@
     </row>
     <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="C6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1808,7 +1836,7 @@
   <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:E85"/>
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
